--- a/Attach/FactoryClient/FactoryClient/bin/Release/菜單.xlsx
+++ b/Attach/FactoryClient/FactoryClient/bin/Release/菜單.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="130">
   <si>
     <t>編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,7 +52,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>美味蟹堡</t>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飯食部(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煎餃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焗烤部(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉燴飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原味小火鍋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閒置的餐點</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -60,39 +92,237 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>麵食部(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸辣湯麵 蛋 雞腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貢丸豚骨麵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閒置(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣小吃部(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔥抓餅+蛋+熱狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:16:43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:16:44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳳梨蝦仁炒飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯肉飯+二副菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:16:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香雞堡飯+二副菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣小吃部(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焗烤咖哩飯+卡拉雞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:16:46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焗烤咖哩麵+卡拉雞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣小吃部(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:16:46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳳梨蝦仁炒飯+雞排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:16:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑胡椒丼飯+三副菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉燴飯</t>
+  </si>
+  <si>
+    <t>2019-02-27-03:16:48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓式拌飯</t>
+  </si>
+  <si>
+    <t>2019-02-27-03:16:49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原味小火鍋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:16:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:16:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:16:52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:16:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:16:54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:16:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:16:56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡拉雞+雞塊+三副菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起司豬排+香腸+三副菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>飯食部(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>台灣小吃部(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019-02-12-20:16:47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安安你好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒜泥白肉 三副菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:16:48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烤肉飯 三副菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素</t>
+    <t>2019-02-27-03:16:57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒜泥白肉+三副菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰糖焢肉+三副菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:16:58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤肉飯+三副菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煎雞腿排+三副菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:16:59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦燒魚飯+薯餅+三副菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜汁雞腿+三副菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無骨雞排+三副菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝦排+柳葉魚+三副菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焗烤部(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣小吃部(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -100,51 +330,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>飯食部(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:16:49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紅燒肉飯 三副菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香酥雞腿 雞塊 三副菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:16:49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焢肉飯 三副菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:16:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒲燒魚 薯餅 三副菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:16:51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>閒置的餐點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:16:52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:16:53</t>
+    <t>2019-02-27-03:17:06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張君雅泡乾麵+蛋+青菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南擔仔乾麵+蛋+小菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾粄條+蛋+小菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麵食部(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清燉牛肉湯麵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麵食部(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸辣湯麵+蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻辣湯麵+豬血+豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄湯麵+蛋+小菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻辣湯張君雅+豬血+臭豆腐+肉片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清燉牛肉麵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙茶羊肉羹麵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄湯麵+蛋+小菜+豬排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤肉乾麵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -152,131 +462,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019-02-12-20:16:54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:16:55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:16:56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:16:57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:16:58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔥抓餅 蛋 豬排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焗烤部(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:16:59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>煎餃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹹酥雞飯 二副菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雞肉絲飯 二副菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焗烤部(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>培根炒飯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台灣小吃部(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焗烤培根飯 雞排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焗烤培根麵 雞排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑胡椒丼飯 三副菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韓式拌飯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>培根炒飯 卡拉雞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛肉燴飯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原味小火鍋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>閒置的餐點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:08</t>
+    <t>麵食部(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麵食部(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閒置(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -284,207 +502,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019-02-12-20:17:09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張君雅泡乾麵 蛋 青菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麵食部(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台南擔仔乾麵 蛋 小菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛肉湯麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻辣湯麵 豬血 臭豆腐 青菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粄條乾 蛋 青菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麵食部(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸辣湯麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸辣湯餃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>味噌湯麵 蛋 丸子 青菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻辣湯張君雅 豬血 臭豆腐 肉片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>味噌拉麵 蛋 豚骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛肉麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊肉羹麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸辣湯麵 蛋 雞腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>貢丸豚骨麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>閒置的餐點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>閒置(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>閒置(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台灣小吃部(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-12-20:17:33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香大雞排</t>
+    <t>2019-02-27-03:17:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-27-03:17:34</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1085,28 +1131,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2">
+        <v>5487</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1114,28 +1160,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1143,28 +1189,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>-1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1172,28 +1218,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C5">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>-1</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1201,28 +1247,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>-1</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1230,28 +1276,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>-1</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1259,28 +1305,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>-1</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1288,28 +1334,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C9">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>-1</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1317,80 +1363,86 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>-1</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
       <c r="C11">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>-1</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
       <c r="C12">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>-1</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1398,28 +1450,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>-1</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1427,231 +1479,210 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C14">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F14">
         <v>-1</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
       <c r="C15">
         <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F15">
         <v>-1</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
       <c r="C16">
         <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F16">
         <v>-1</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
       <c r="C17">
         <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F17">
         <v>-1</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
       <c r="C18">
         <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F18">
         <v>-1</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
       <c r="C19">
         <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F19">
         <v>-1</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
       <c r="C20">
         <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F20">
         <v>-1</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
       <c r="C21">
         <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F21">
         <v>-1</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1659,28 +1690,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C22">
         <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F22">
         <v>-1</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1688,28 +1719,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F23">
         <v>-1</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I23" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1717,28 +1748,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F24">
         <v>-1</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1746,28 +1777,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C25">
         <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F25">
         <v>-1</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1775,28 +1806,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C26">
         <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F26">
         <v>-1</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1804,28 +1835,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C27">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <v>-1</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1833,28 +1864,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C28">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F28">
         <v>-1</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1862,28 +1893,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C29">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F29">
         <v>-1</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1891,28 +1922,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C30">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F30">
         <v>-1</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1920,28 +1951,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C31">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F31">
         <v>-1</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1949,28 +1980,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C32">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F32">
         <v>-1</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1978,28 +2009,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C33">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F33">
         <v>-1</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2007,28 +2038,28 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C34">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F34">
         <v>-1</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I34" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2036,28 +2067,28 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C35">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F35">
         <v>-1</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2065,28 +2096,28 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36">
         <v>55</v>
       </c>
-      <c r="C36">
-        <v>123</v>
-      </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F36">
         <v>-1</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2094,28 +2125,28 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C37">
         <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F37">
         <v>-1</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2123,28 +2154,28 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C38">
         <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F38">
         <v>-1</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2155,22 +2186,22 @@
         <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F39">
         <v>-1</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I39" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2178,28 +2209,28 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C40">
         <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F40">
         <v>-1</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2207,28 +2238,28 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F41">
         <v>-1</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I41" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2236,28 +2267,28 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C42">
         <v>123</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F42">
         <v>-1</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I42" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2265,28 +2296,28 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C43">
         <v>123</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F43">
         <v>-1</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I43" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2294,28 +2325,28 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C44">
         <v>123</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F44">
         <v>-1</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2323,28 +2354,28 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C45">
         <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F45">
         <v>-1</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I45" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2352,28 +2383,28 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C46">
         <v>123</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F46">
         <v>-1</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I46" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2381,28 +2412,28 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C47">
         <v>123</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F47">
         <v>-1</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I47" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2410,28 +2441,28 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C48">
         <v>123</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F48">
         <v>-1</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I48" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2439,28 +2470,28 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C49">
         <v>123</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F49">
         <v>-1</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I49" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2468,28 +2499,28 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C50">
         <v>123</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F50">
         <v>-1</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I50" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2497,28 +2528,28 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C51">
         <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F51">
         <v>-1</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I51" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2526,28 +2557,28 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C52">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F52">
         <v>-1</v>
       </c>
       <c r="G52" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I52" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2555,28 +2586,28 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C53">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F53">
         <v>-1</v>
       </c>
       <c r="G53" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I53" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2584,28 +2615,28 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C54">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F54">
         <v>-1</v>
       </c>
       <c r="G54" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I54" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2613,28 +2644,28 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C55">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F55">
         <v>-1</v>
       </c>
       <c r="G55" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I55" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2642,28 +2673,28 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C56">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F56">
         <v>-1</v>
       </c>
       <c r="G56" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I56" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2671,28 +2702,28 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C57">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F57">
         <v>-1</v>
       </c>
       <c r="G57" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I57" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2700,28 +2731,28 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C58">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F58">
         <v>-1</v>
       </c>
       <c r="G58" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I58" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2729,28 +2760,28 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C59">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F59">
         <v>-1</v>
       </c>
       <c r="G59" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I59" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2758,28 +2789,28 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C60">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F60">
         <v>-1</v>
       </c>
       <c r="G60" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I60" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2787,28 +2818,28 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C61">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F61">
         <v>-1</v>
       </c>
       <c r="G61" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I61" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2816,28 +2847,28 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C62">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="F62">
         <v>-1</v>
       </c>
       <c r="G62" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I62" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2845,28 +2876,28 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C63">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="F63">
         <v>-1</v>
       </c>
       <c r="G63" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I63" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2874,28 +2905,28 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C64">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F64">
         <v>-1</v>
       </c>
       <c r="G64" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I64" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2903,28 +2934,28 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="C65">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F65">
         <v>-1</v>
       </c>
       <c r="G65" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I65" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2935,22 +2966,22 @@
         <v>123</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F66">
         <v>-1</v>
       </c>
       <c r="G66" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I66" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2961,22 +2992,22 @@
         <v>123</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F67">
         <v>-1</v>
       </c>
       <c r="G67" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I67" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2984,28 +3015,28 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C68">
         <v>123</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E68" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F68">
         <v>-1</v>
       </c>
       <c r="G68" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I68" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3013,28 +3044,28 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C69">
         <v>123</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F69">
         <v>-1</v>
       </c>
       <c r="G69" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I69" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3042,28 +3073,28 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="C70">
         <v>123</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E70" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F70">
         <v>-1</v>
       </c>
       <c r="G70" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I70" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3071,28 +3102,28 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C71">
         <v>123</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F71">
         <v>-1</v>
       </c>
       <c r="G71" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I71" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3100,28 +3131,28 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C72">
         <v>123</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E72" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F72">
         <v>-1</v>
       </c>
       <c r="G72" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I72" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3129,28 +3160,28 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C73">
         <v>123</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F73">
         <v>-1</v>
       </c>
       <c r="G73" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I73" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3158,28 +3189,28 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C74">
         <v>123</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E74" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="F74">
         <v>-1</v>
       </c>
       <c r="G74" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I74" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3187,28 +3218,28 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C75">
         <v>123</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F75">
         <v>-1</v>
       </c>
       <c r="G75" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I75" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3216,28 +3247,28 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C76">
         <v>123</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E76" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F76">
         <v>-1</v>
       </c>
       <c r="G76" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I76" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3245,28 +3276,28 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C77">
         <v>123</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F77">
         <v>-1</v>
       </c>
       <c r="G77" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I77" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3274,28 +3305,28 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C78">
         <v>123</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F78">
         <v>-1</v>
       </c>
       <c r="G78" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I78" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3303,28 +3334,28 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C79">
         <v>123</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E79" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F79">
         <v>-1</v>
       </c>
       <c r="G79" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I79" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3332,28 +3363,28 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C80">
         <v>123</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F80">
         <v>-1</v>
       </c>
       <c r="G80" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I80" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3361,28 +3392,28 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C81">
         <v>123</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E81" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F81">
         <v>-1</v>
       </c>
       <c r="G81" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I81" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3390,28 +3421,28 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C82">
         <v>123</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E82" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F82">
         <v>-1</v>
       </c>
       <c r="G82" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I82" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3419,28 +3450,28 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C83">
         <v>123</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E83" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F83">
         <v>-1</v>
       </c>
       <c r="G83" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H83" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I83" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3448,28 +3479,28 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C84">
         <v>123</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E84" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F84">
         <v>-1</v>
       </c>
       <c r="G84" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I84" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3477,28 +3508,28 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C85">
         <v>123</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E85" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F85">
         <v>-1</v>
       </c>
       <c r="G85" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H85" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I85" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3506,28 +3537,28 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C86">
         <v>123</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E86" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F86">
         <v>-1</v>
       </c>
       <c r="G86" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H86" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I86" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3535,28 +3566,28 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C87">
         <v>123</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E87" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="F87">
         <v>-1</v>
       </c>
       <c r="G87" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H87" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I87" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3564,28 +3595,28 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C88">
         <v>123</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E88" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F88">
         <v>-1</v>
       </c>
       <c r="G88" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H88" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I88" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3593,28 +3624,28 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C89">
         <v>123</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E89" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F89">
         <v>-1</v>
       </c>
       <c r="G89" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I89" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3622,28 +3653,28 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C90">
         <v>123</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E90" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F90">
         <v>-1</v>
       </c>
       <c r="G90" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I90" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3651,28 +3682,28 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C91">
         <v>123</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E91" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F91">
         <v>-1</v>
       </c>
       <c r="G91" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H91" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I91" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3680,28 +3711,28 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C92">
         <v>123</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E92" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F92">
         <v>-1</v>
       </c>
       <c r="G92" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I92" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3709,28 +3740,28 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C93">
         <v>123</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E93" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F93">
         <v>-1</v>
       </c>
       <c r="G93" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H93" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I93" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3738,28 +3769,28 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C94">
         <v>123</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E94" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F94">
         <v>-1</v>
       </c>
       <c r="G94" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H94" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I94" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3767,28 +3798,28 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C95">
         <v>123</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E95" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F95">
         <v>-1</v>
       </c>
       <c r="G95" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H95" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="I95" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3796,28 +3827,28 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C96">
         <v>123</v>
       </c>
       <c r="D96" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="E96" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="F96">
         <v>-1</v>
       </c>
       <c r="G96" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H96" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I96" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3825,28 +3856,28 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="C97">
         <v>123</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E97" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F97">
         <v>-1</v>
       </c>
       <c r="G97" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I97" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3854,28 +3885,28 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C98">
         <v>123</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E98" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F98">
         <v>-1</v>
       </c>
       <c r="G98" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H98" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I98" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3883,28 +3914,28 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C99">
         <v>123</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E99" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F99">
         <v>-1</v>
       </c>
       <c r="G99" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H99" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I99" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3912,28 +3943,28 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C100">
         <v>123</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E100" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F100">
         <v>-1</v>
       </c>
       <c r="G100" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H100" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I100" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3941,28 +3972,28 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="C101">
         <v>123</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E101" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F101">
         <v>-1</v>
       </c>
       <c r="G101" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H101" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I101" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Attach/FactoryClient/FactoryClient/bin/Release/菜單.xlsx
+++ b/Attach/FactoryClient/FactoryClient/bin/Release/菜單.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4ACED2-5C84-456F-9BD9-3FB8027C4720}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -52,9 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>素</t>
-  </si>
-  <si>
     <t>葷</t>
   </si>
   <si>
@@ -70,15 +68,9 @@
     <t>2019/02/10-12:20:41</t>
   </si>
   <si>
-    <t>香</t>
-  </si>
-  <si>
     <t>2019/02/10-12:20:42</t>
   </si>
   <si>
-    <t>大雞排</t>
-  </si>
-  <si>
     <t>2019/02/10-12:20:44</t>
   </si>
   <si>
@@ -388,13 +380,22 @@
     <t>2019/02/10-12:22:52</t>
   </si>
   <si>
-    <t>素香大雞排</t>
+    <t>貢丸</t>
+  </si>
+  <si>
+    <t>白菜</t>
+  </si>
+  <si>
+    <t>蘿蔔</t>
+  </si>
+  <si>
+    <t>肉片</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -436,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -653,7 +654,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -728,6 +729,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -763,6 +781,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -938,20 +973,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="17.8984375" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="18.59765625" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -988,28 +1023,28 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="C2">
         <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
       <c r="F2">
         <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1017,28 +1052,28 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
       <c r="F3">
         <v>150</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1046,28 +1081,28 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="C4">
         <v>87</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
       <c r="F4">
         <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1081,22 +1116,22 @@
         <v>123</v>
       </c>
       <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1104,28 +1139,28 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>305</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>-1</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1133,28 +1168,28 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
         <v>20</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1162,28 +1197,28 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>-1</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1191,28 +1226,28 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F9">
         <v>-1</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1220,28 +1255,28 @@
         <v>309</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>-1</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1249,28 +1284,28 @@
         <v>310</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F11">
         <v>-1</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1278,28 +1313,28 @@
         <v>311</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F12">
         <v>-1</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1307,28 +1342,28 @@
         <v>312</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F13">
         <v>-1</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1336,28 +1371,28 @@
         <v>313</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F14">
         <v>-1</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1365,28 +1400,28 @@
         <v>314</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F15">
         <v>-1</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1394,28 +1429,28 @@
         <v>315</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F16">
         <v>-1</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1423,28 +1458,28 @@
         <v>316</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F17">
         <v>-1</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1452,28 +1487,28 @@
         <v>317</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F18">
         <v>-1</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1481,28 +1516,28 @@
         <v>318</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F19">
         <v>-1</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1510,28 +1545,28 @@
         <v>319</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F20">
         <v>-1</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1539,28 +1574,28 @@
         <v>320</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F21">
         <v>-1</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1568,28 +1603,28 @@
         <v>321</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F22">
         <v>-1</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1597,28 +1632,28 @@
         <v>322</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <v>-1</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1626,28 +1661,28 @@
         <v>323</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F24">
         <v>-1</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1655,28 +1690,28 @@
         <v>324</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25">
         <v>-1</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1684,28 +1719,28 @@
         <v>325</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F26">
         <v>-1</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1713,28 +1748,28 @@
         <v>326</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F27">
         <v>-1</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1742,28 +1777,28 @@
         <v>327</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F28">
         <v>-1</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1771,28 +1806,28 @@
         <v>328</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F29">
         <v>-1</v>
       </c>
       <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" t="s">
         <v>43</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1800,28 +1835,28 @@
         <v>329</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F30">
         <v>-1</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1829,28 +1864,28 @@
         <v>330</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F31">
         <v>-1</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1858,28 +1893,28 @@
         <v>331</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F32">
         <v>-1</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1887,28 +1922,28 @@
         <v>332</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F33">
         <v>-1</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1916,28 +1951,28 @@
         <v>333</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F34">
         <v>-1</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1945,28 +1980,28 @@
         <v>334</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F35">
         <v>-1</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1974,28 +2009,28 @@
         <v>335</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F36">
         <v>-1</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2003,28 +2038,28 @@
         <v>336</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F37">
         <v>-1</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2032,28 +2067,28 @@
         <v>337</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F38">
         <v>-1</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2061,28 +2096,28 @@
         <v>338</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F39">
         <v>-1</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2090,28 +2125,28 @@
         <v>339</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F40">
         <v>-1</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2119,28 +2154,28 @@
         <v>340</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F41">
         <v>-1</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2148,28 +2183,28 @@
         <v>341</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F42">
         <v>-1</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2177,28 +2212,28 @@
         <v>342</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F43">
         <v>-1</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2206,28 +2241,28 @@
         <v>343</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F44">
         <v>-1</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2235,28 +2270,28 @@
         <v>344</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F45">
         <v>-1</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I45" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2264,28 +2299,28 @@
         <v>345</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C46">
         <v>345</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F46">
         <v>-1</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I46" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2293,28 +2328,28 @@
         <v>346</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F47">
         <v>-1</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I47" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2322,28 +2357,28 @@
         <v>347</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F48">
         <v>-1</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2351,28 +2386,28 @@
         <v>348</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F49">
         <v>-1</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2380,28 +2415,28 @@
         <v>349</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F50">
         <v>-1</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2409,28 +2444,28 @@
         <v>350</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F51">
         <v>-1</v>
       </c>
       <c r="G51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I51" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2438,28 +2473,28 @@
         <v>351</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F52">
         <v>-1</v>
       </c>
       <c r="G52" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2467,28 +2502,28 @@
         <v>352</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F53">
         <v>-1</v>
       </c>
       <c r="G53" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2496,28 +2531,28 @@
         <v>353</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F54">
         <v>-1</v>
       </c>
       <c r="G54" t="s">
+        <v>66</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s">
         <v>69</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2525,28 +2560,28 @@
         <v>354</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F55">
         <v>-1</v>
       </c>
       <c r="G55" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I55" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2554,28 +2589,28 @@
         <v>355</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F56">
         <v>-1</v>
       </c>
       <c r="G56" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I56" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2583,28 +2618,28 @@
         <v>356</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F57">
         <v>-1</v>
       </c>
       <c r="G57" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2612,28 +2647,28 @@
         <v>357</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F58">
         <v>-1</v>
       </c>
       <c r="G58" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I58" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2641,28 +2676,28 @@
         <v>358</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F59">
         <v>-1</v>
       </c>
       <c r="G59" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I59" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2670,28 +2705,28 @@
         <v>359</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F60">
         <v>-1</v>
       </c>
       <c r="G60" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I60" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2699,28 +2734,28 @@
         <v>360</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F61">
         <v>-1</v>
       </c>
       <c r="G61" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I61" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2728,28 +2763,28 @@
         <v>361</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F62">
         <v>-1</v>
       </c>
       <c r="G62" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I62" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2757,28 +2792,28 @@
         <v>362</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F63">
         <v>-1</v>
       </c>
       <c r="G63" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I63" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2786,28 +2821,28 @@
         <v>363</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F64">
         <v>-1</v>
       </c>
       <c r="G64" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I64" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2815,28 +2850,28 @@
         <v>364</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F65">
         <v>-1</v>
       </c>
       <c r="G65" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I65" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2844,28 +2879,28 @@
         <v>365</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F66">
         <v>-1</v>
       </c>
       <c r="G66" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I66" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2873,28 +2908,28 @@
         <v>366</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F67">
         <v>-1</v>
       </c>
       <c r="G67" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I67" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2902,28 +2937,28 @@
         <v>367</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F68">
         <v>-1</v>
       </c>
       <c r="G68" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I68" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2931,28 +2966,28 @@
         <v>368</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F69">
         <v>-1</v>
       </c>
       <c r="G69" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I69" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2960,28 +2995,28 @@
         <v>369</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F70">
         <v>-1</v>
       </c>
       <c r="G70" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I70" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2989,28 +3024,28 @@
         <v>370</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F71">
         <v>-1</v>
       </c>
       <c r="G71" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I71" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3018,28 +3053,28 @@
         <v>371</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F72">
         <v>-1</v>
       </c>
       <c r="G72" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I72" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3047,28 +3082,28 @@
         <v>372</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F73">
         <v>-1</v>
       </c>
       <c r="G73" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I73" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3076,28 +3111,28 @@
         <v>373</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F74">
         <v>-1</v>
       </c>
       <c r="G74" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I74" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3105,28 +3140,28 @@
         <v>374</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F75">
         <v>-1</v>
       </c>
       <c r="G75" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3134,28 +3169,28 @@
         <v>375</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F76">
         <v>-1</v>
       </c>
       <c r="G76" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I76" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3163,28 +3198,28 @@
         <v>376</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F77">
         <v>-1</v>
       </c>
       <c r="G77" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I77" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3192,28 +3227,28 @@
         <v>377</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F78">
         <v>-1</v>
       </c>
       <c r="G78" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I78" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3221,28 +3256,28 @@
         <v>378</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F79">
         <v>-1</v>
       </c>
       <c r="G79" t="s">
+        <v>92</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" t="s">
         <v>95</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3250,28 +3285,28 @@
         <v>379</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F80">
         <v>-1</v>
       </c>
       <c r="G80" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3279,28 +3314,28 @@
         <v>380</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F81">
         <v>-1</v>
       </c>
       <c r="G81" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I81" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3308,28 +3343,28 @@
         <v>381</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F82">
         <v>-1</v>
       </c>
       <c r="G82" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I82" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3337,28 +3372,28 @@
         <v>382</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F83">
         <v>-1</v>
       </c>
       <c r="G83" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I83" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3366,28 +3401,28 @@
         <v>383</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F84">
         <v>-1</v>
       </c>
       <c r="G84" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I84" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3395,28 +3430,28 @@
         <v>384</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F85">
         <v>-1</v>
       </c>
       <c r="G85" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I85" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3424,28 +3459,28 @@
         <v>385</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F86">
         <v>-1</v>
       </c>
       <c r="G86" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I86" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3453,28 +3488,28 @@
         <v>386</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F87">
         <v>-1</v>
       </c>
       <c r="G87" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I87" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3482,28 +3517,28 @@
         <v>387</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F88">
         <v>-1</v>
       </c>
       <c r="G88" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I88" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3511,28 +3546,28 @@
         <v>388</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F89">
         <v>-1</v>
       </c>
       <c r="G89" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I89" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3540,28 +3575,28 @@
         <v>389</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F90">
         <v>-1</v>
       </c>
       <c r="G90" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I90" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3569,28 +3604,28 @@
         <v>390</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F91">
         <v>-1</v>
       </c>
       <c r="G91" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I91" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3598,28 +3633,28 @@
         <v>391</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F92">
         <v>-1</v>
       </c>
       <c r="G92" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I92" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3627,28 +3662,28 @@
         <v>392</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F93">
         <v>-1</v>
       </c>
       <c r="G93" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I93" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3656,28 +3691,28 @@
         <v>393</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F94">
         <v>-1</v>
       </c>
       <c r="G94" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I94" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3685,28 +3720,28 @@
         <v>394</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F95">
         <v>-1</v>
       </c>
       <c r="G95" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I95" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3714,28 +3749,28 @@
         <v>395</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F96">
         <v>-1</v>
       </c>
       <c r="G96" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I96" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3743,28 +3778,28 @@
         <v>396</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F97">
         <v>-1</v>
       </c>
       <c r="G97" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I97" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3772,28 +3807,28 @@
         <v>397</v>
       </c>
       <c r="B98" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F98">
         <v>-1</v>
       </c>
       <c r="G98" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I98" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3801,28 +3836,28 @@
         <v>398</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F99">
         <v>-1</v>
       </c>
       <c r="G99" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I99" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3830,28 +3865,28 @@
         <v>399</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E100" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F100">
         <v>-1</v>
       </c>
       <c r="G100" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I100" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3859,28 +3894,28 @@
         <v>400</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E101" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F101">
         <v>-1</v>
       </c>
       <c r="G101" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I101" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Attach/FactoryClient/FactoryClient/bin/Release/菜單.xlsx
+++ b/Attach/FactoryClient/FactoryClient/bin/Release/菜單.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4ACED2-5C84-456F-9BD9-3FB8027C4720}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258A8BE5-D7FA-4862-83D7-574319DDB9ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="3225" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="116">
   <si>
     <t>編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,337 +59,319 @@
     <t>否</t>
   </si>
   <si>
-    <t>關東煮(1)</t>
-  </si>
-  <si>
-    <t>關東煮(4)</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:41</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:42</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:44</t>
-  </si>
-  <si>
-    <t>閒置中的餐點</t>
-  </si>
-  <si>
     <t>是</t>
   </si>
   <si>
-    <t>2019/02/10-12:20:45</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:46</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:47</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:49</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:50</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:51</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:52</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:53</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:54</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:55</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:57</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:58</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:59</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:00</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:02</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:03</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:04</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:05</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:07</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:08</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:09</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:10</t>
-  </si>
-  <si>
-    <t>閒置(2)</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:12</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:13</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:15</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:17</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:18</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:19</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:21</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:22</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:23</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:24</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:25</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:27</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:28</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:29</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:30</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:31</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:33</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:34</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:35</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:36</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:37</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:38</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:40</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:41</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:43</t>
-  </si>
-  <si>
-    <t>閒置(3)</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:44</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:45</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:47</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:48</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:50</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:51</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:53</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:54</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:55</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:57</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:58</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:59</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:01</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:02</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:04</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:05</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:07</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:08</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:09</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:11</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:12</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:14</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:15</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:17</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:18</t>
-  </si>
-  <si>
     <t>閒置(4)</t>
   </si>
   <si>
-    <t>2019/02/10-12:22:20</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:21</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:23</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:24</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:25</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:26</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:28</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:29</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:30</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:32</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:33</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:35</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:36</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:37</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:38</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:40</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:41</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:42</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:43</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:45</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:46</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:47</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:49</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:50</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:52</t>
-  </si>
-  <si>
-    <t>貢丸</t>
-  </si>
-  <si>
-    <t>白菜</t>
-  </si>
-  <si>
-    <t>蘿蔔</t>
-  </si>
-  <si>
-    <t>肉片</t>
+    <t>素</t>
+  </si>
+  <si>
+    <t>飯食部(1)</t>
+  </si>
+  <si>
+    <t>台灣小吃部(1)</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:23</t>
+  </si>
+  <si>
+    <t>海苔烤肉飯糰</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:24</t>
+  </si>
+  <si>
+    <t>滷肉飯+二副菜</t>
+  </si>
+  <si>
+    <t>雞肉絲飯+二副菜</t>
+  </si>
+  <si>
+    <t>培根炒飯+二副菜</t>
+  </si>
+  <si>
+    <t>焗烤白醬飯+卡拉雞</t>
+  </si>
+  <si>
+    <t>焗烤白醬麵+卡拉雞</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:25</t>
+  </si>
+  <si>
+    <t>黑胡椒丼飯+三副菜</t>
+  </si>
+  <si>
+    <t>牛肉粥</t>
+  </si>
+  <si>
+    <t>韓式拌飯</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:26</t>
+  </si>
+  <si>
+    <t>牛肉燴飯</t>
+  </si>
+  <si>
+    <t>原味小火鍋</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:27</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:28</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:29</t>
+  </si>
+  <si>
+    <t>閒置的餐點</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:30</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:31</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:32</t>
+  </si>
+  <si>
+    <t>卡拉雞+雞塊+三副菜</t>
+  </si>
+  <si>
+    <t>焗烤部(2)</t>
+  </si>
+  <si>
+    <t>起司豬排+三副菜</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:33</t>
+  </si>
+  <si>
+    <t>蒜泥白肉+三副菜</t>
+  </si>
+  <si>
+    <t>黑胡椒烤肉飯+三副菜</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:34</t>
+  </si>
+  <si>
+    <t>香煎無骨雞腿排+三副菜</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:35</t>
+  </si>
+  <si>
+    <t>泰式打拋豬+三副菜</t>
+  </si>
+  <si>
+    <t>浦燒魚+雞絲+三副菜</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:36</t>
+  </si>
+  <si>
+    <t>香酥雞腿+三副菜</t>
+  </si>
+  <si>
+    <t>煙燻豬頭皮+三副菜</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:37</t>
+  </si>
+  <si>
+    <t>浦燒魚+紅燒肉+三副菜</t>
+  </si>
+  <si>
+    <t>黑胡椒豬柳+三副菜</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:38</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:39</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:40</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:41</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:42</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:43</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:44</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:45</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:46</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:47</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:48</t>
+  </si>
+  <si>
+    <t>張君雅泡乾麵+紅燒肉+青菜</t>
+  </si>
+  <si>
+    <t>麵食部(3)</t>
+  </si>
+  <si>
+    <t>台南擔仔乾麵+紅燒肉+小菜</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:49</t>
+  </si>
+  <si>
+    <t>牛肉湯麵</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:50</t>
+  </si>
+  <si>
+    <t>乾粄條+紅燒肉+小菜</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:51</t>
+  </si>
+  <si>
+    <t>味噌湯麵+小菜+蛋</t>
+  </si>
+  <si>
+    <t>酸辣湯麵+小菜+蛋</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:52</t>
+  </si>
+  <si>
+    <t>麻辣湯麵(張君雅)+豬血+臭豆腐</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:53</t>
+  </si>
+  <si>
+    <t>牛肉麵</t>
+  </si>
+  <si>
+    <t>沙茶羊肉羹麵</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:54</t>
+  </si>
+  <si>
+    <t>麻辣湯張君雅+豬血+臭豆腐+肉片</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:55</t>
+  </si>
+  <si>
+    <t>味噌湯麵+小菜+豚骨</t>
+  </si>
+  <si>
+    <t>烤肉乾麵</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:56</t>
+  </si>
+  <si>
+    <t>酸辣湯麵 蛋 雞腿</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:57</t>
+  </si>
+  <si>
+    <t>貢丸豚骨麵</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:58</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:49:59</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:00</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:01</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:02</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:03</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:04</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:05</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:06</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:07</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:08</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:09</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:10</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:11</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:12</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:13</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:14</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:15</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:16</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:17</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:18</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:19</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:20</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:21</t>
+  </si>
+  <si>
+    <t>2019-04-14-17:50:22</t>
+  </si>
+  <si>
+    <t>測試</t>
   </si>
 </sst>
 </file>
@@ -978,7 +960,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1020,42 +1002,42 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>150</v>
+        <v>-1</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>302</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1064,27 +1046,27 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>150</v>
+        <v>-1</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>303</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1093,27 +1075,27 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>150</v>
+        <v>-1</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>304</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -1125,10 +1107,10 @@
         <v>-1</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
@@ -1136,434 +1118,416 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>305</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>-1</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>306</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>-1</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>307</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>-1</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>308</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>-1</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>-1</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>-1</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <v>-1</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>312</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>-1</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>313</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>-1</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>314</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>-1</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>315</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F16">
         <v>-1</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>316</v>
-      </c>
-      <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F17">
         <v>-1</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>317</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F18">
         <v>-1</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>318</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F19">
         <v>-1</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>319</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F20">
         <v>-1</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
         <v>33</v>
@@ -1571,57 +1535,54 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>320</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F21">
         <v>-1</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>321</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22">
         <v>-1</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
         <v>35</v>
@@ -1629,231 +1590,231 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>322</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F23">
         <v>-1</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>323</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F24">
         <v>-1</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F25">
         <v>-1</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>325</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F26">
         <v>-1</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>326</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F27">
         <v>-1</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>327</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F28">
         <v>-1</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>328</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F29">
         <v>-1</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>329</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F30">
         <v>-1</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
         <v>44</v>
@@ -1861,57 +1822,57 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F31">
         <v>-1</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>331</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F32">
         <v>-1</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
         <v>46</v>
@@ -1919,492 +1880,489 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>332</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F33">
         <v>-1</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>333</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F34">
         <v>-1</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>334</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F35">
         <v>-1</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>335</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F36">
         <v>-1</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>336</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F37">
         <v>-1</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>337</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F38">
         <v>-1</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>338</v>
-      </c>
-      <c r="B39" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F39">
         <v>-1</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>339</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F40">
         <v>-1</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>340</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F41">
         <v>-1</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>341</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F42">
         <v>-1</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>342</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F43">
         <v>-1</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>343</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F44">
         <v>-1</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>344</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F45">
         <v>-1</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>345</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C46">
-        <v>345</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F46">
         <v>-1</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>346</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F47">
         <v>-1</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>347</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F48">
         <v>-1</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>348</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F49">
         <v>-1</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
         <v>63</v>
@@ -2412,28 +2370,28 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>349</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F50">
         <v>-1</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
         <v>64</v>
@@ -2441,28 +2399,28 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F51">
         <v>-1</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
         <v>65</v>
@@ -2470,1159 +2428,1153 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F52">
         <v>-1</v>
       </c>
       <c r="G52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>352</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F53">
         <v>-1</v>
       </c>
       <c r="G53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>353</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F54">
         <v>-1</v>
       </c>
       <c r="G54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>354</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F55">
         <v>-1</v>
       </c>
       <c r="G55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>355</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F56">
         <v>-1</v>
       </c>
       <c r="G56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>356</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F57">
         <v>-1</v>
       </c>
       <c r="G57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>357</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F58">
         <v>-1</v>
       </c>
       <c r="G58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>358</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F59">
         <v>-1</v>
       </c>
       <c r="G59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>359</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F60">
         <v>-1</v>
       </c>
       <c r="G60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F61">
         <v>-1</v>
       </c>
       <c r="G61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>361</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F62">
         <v>-1</v>
       </c>
       <c r="G62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>362</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F63">
         <v>-1</v>
       </c>
       <c r="G63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>363</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F64">
         <v>-1</v>
       </c>
       <c r="G64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>364</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F65">
         <v>-1</v>
       </c>
       <c r="G65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>365</v>
-      </c>
-      <c r="B66" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F66">
         <v>-1</v>
       </c>
       <c r="G66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>366</v>
-      </c>
-      <c r="B67" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F67">
         <v>-1</v>
       </c>
       <c r="G67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>367</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F68">
         <v>-1</v>
       </c>
       <c r="G68" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>368</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F69">
         <v>-1</v>
       </c>
       <c r="G69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>369</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F70">
         <v>-1</v>
       </c>
       <c r="G70" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>370</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F71">
         <v>-1</v>
       </c>
       <c r="G71" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>371</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F72">
         <v>-1</v>
       </c>
       <c r="G72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>372</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F73">
         <v>-1</v>
       </c>
       <c r="G73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>373</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F74">
         <v>-1</v>
       </c>
       <c r="G74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>374</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F75">
         <v>-1</v>
       </c>
       <c r="G75" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>375</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F76">
         <v>-1</v>
       </c>
       <c r="G76" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F77">
         <v>-1</v>
       </c>
       <c r="G77" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F78">
         <v>-1</v>
       </c>
       <c r="G78" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F79">
         <v>-1</v>
       </c>
       <c r="G79" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
       </c>
       <c r="E80" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F80">
         <v>-1</v>
       </c>
       <c r="G80" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F81">
         <v>-1</v>
       </c>
       <c r="G81" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F82">
         <v>-1</v>
       </c>
       <c r="G82" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>382</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F83">
         <v>-1</v>
       </c>
       <c r="G83" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>383</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F84">
         <v>-1</v>
       </c>
       <c r="G84" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>384</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F85">
         <v>-1</v>
       </c>
       <c r="G85" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>385</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F86">
         <v>-1</v>
       </c>
       <c r="G86" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>386</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F87">
         <v>-1</v>
       </c>
       <c r="G87" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>387</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F88">
         <v>-1</v>
       </c>
       <c r="G88" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H88" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>388</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F89">
         <v>-1</v>
       </c>
       <c r="G89" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>389</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F90">
         <v>-1</v>
       </c>
       <c r="G90" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H90" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>390</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F91">
         <v>-1</v>
       </c>
       <c r="G91" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
         <v>107</v>
@@ -3630,28 +3582,28 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>391</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F92">
         <v>-1</v>
       </c>
       <c r="G92" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
         <v>108</v>
@@ -3659,28 +3611,28 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>392</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F93">
         <v>-1</v>
       </c>
       <c r="G93" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
         <v>109</v>
@@ -3688,234 +3640,234 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>393</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F94">
         <v>-1</v>
       </c>
       <c r="G94" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>394</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F95">
         <v>-1</v>
       </c>
       <c r="G95" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>395</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F96">
         <v>-1</v>
       </c>
       <c r="G96" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H96" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>396</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D97" t="s">
         <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F97">
         <v>-1</v>
       </c>
       <c r="G97" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>397</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F98">
         <v>-1</v>
       </c>
       <c r="G98" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>398</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F99">
         <v>-1</v>
       </c>
       <c r="G99" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>399</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
       </c>
       <c r="E100" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F100">
         <v>-1</v>
       </c>
       <c r="G100" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D101" t="s">
         <v>9</v>
       </c>
       <c r="E101" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F101">
         <v>-1</v>
       </c>
       <c r="G101" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Attach/FactoryClient/FactoryClient/bin/Release/菜單.xlsx
+++ b/Attach/FactoryClient/FactoryClient/bin/Release/菜單.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258A8BE5-D7FA-4862-83D7-574319DDB9ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4ACED2-5C84-456F-9BD9-3FB8027C4720}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="3225" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="122">
   <si>
     <t>編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,319 +59,337 @@
     <t>否</t>
   </si>
   <si>
+    <t>關東煮(1)</t>
+  </si>
+  <si>
+    <t>關東煮(4)</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:20:41</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:20:42</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:20:44</t>
+  </si>
+  <si>
+    <t>閒置中的餐點</t>
+  </si>
+  <si>
     <t>是</t>
   </si>
   <si>
+    <t>2019/02/10-12:20:45</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:20:46</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:20:47</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:20:49</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:20:50</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:20:51</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:20:52</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:20:53</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:20:54</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:20:55</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:20:57</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:20:58</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:20:59</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:00</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:02</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:03</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:04</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:05</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:07</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:08</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:09</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:10</t>
+  </si>
+  <si>
+    <t>閒置(2)</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:12</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:13</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:15</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:17</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:18</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:19</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:21</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:22</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:23</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:24</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:25</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:27</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:28</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:29</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:30</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:31</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:33</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:34</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:35</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:36</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:37</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:38</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:40</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:41</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:43</t>
+  </si>
+  <si>
+    <t>閒置(3)</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:44</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:45</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:47</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:48</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:50</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:51</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:53</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:54</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:55</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:57</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:58</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:21:59</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:01</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:02</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:04</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:05</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:07</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:08</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:09</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:11</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:12</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:14</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:15</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:17</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:18</t>
+  </si>
+  <si>
     <t>閒置(4)</t>
   </si>
   <si>
-    <t>素</t>
-  </si>
-  <si>
-    <t>飯食部(1)</t>
-  </si>
-  <si>
-    <t>台灣小吃部(1)</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:23</t>
-  </si>
-  <si>
-    <t>海苔烤肉飯糰</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:24</t>
-  </si>
-  <si>
-    <t>滷肉飯+二副菜</t>
-  </si>
-  <si>
-    <t>雞肉絲飯+二副菜</t>
-  </si>
-  <si>
-    <t>培根炒飯+二副菜</t>
-  </si>
-  <si>
-    <t>焗烤白醬飯+卡拉雞</t>
-  </si>
-  <si>
-    <t>焗烤白醬麵+卡拉雞</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:25</t>
-  </si>
-  <si>
-    <t>黑胡椒丼飯+三副菜</t>
-  </si>
-  <si>
-    <t>牛肉粥</t>
-  </si>
-  <si>
-    <t>韓式拌飯</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:26</t>
-  </si>
-  <si>
-    <t>牛肉燴飯</t>
-  </si>
-  <si>
-    <t>原味小火鍋</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:27</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:28</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:29</t>
-  </si>
-  <si>
-    <t>閒置的餐點</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:30</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:31</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:32</t>
-  </si>
-  <si>
-    <t>卡拉雞+雞塊+三副菜</t>
-  </si>
-  <si>
-    <t>焗烤部(2)</t>
-  </si>
-  <si>
-    <t>起司豬排+三副菜</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:33</t>
-  </si>
-  <si>
-    <t>蒜泥白肉+三副菜</t>
-  </si>
-  <si>
-    <t>黑胡椒烤肉飯+三副菜</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:34</t>
-  </si>
-  <si>
-    <t>香煎無骨雞腿排+三副菜</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:35</t>
-  </si>
-  <si>
-    <t>泰式打拋豬+三副菜</t>
-  </si>
-  <si>
-    <t>浦燒魚+雞絲+三副菜</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:36</t>
-  </si>
-  <si>
-    <t>香酥雞腿+三副菜</t>
-  </si>
-  <si>
-    <t>煙燻豬頭皮+三副菜</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:37</t>
-  </si>
-  <si>
-    <t>浦燒魚+紅燒肉+三副菜</t>
-  </si>
-  <si>
-    <t>黑胡椒豬柳+三副菜</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:38</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:39</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:40</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:41</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:42</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:43</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:44</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:45</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:46</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:47</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:48</t>
-  </si>
-  <si>
-    <t>張君雅泡乾麵+紅燒肉+青菜</t>
-  </si>
-  <si>
-    <t>麵食部(3)</t>
-  </si>
-  <si>
-    <t>台南擔仔乾麵+紅燒肉+小菜</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:49</t>
-  </si>
-  <si>
-    <t>牛肉湯麵</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:50</t>
-  </si>
-  <si>
-    <t>乾粄條+紅燒肉+小菜</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:51</t>
-  </si>
-  <si>
-    <t>味噌湯麵+小菜+蛋</t>
-  </si>
-  <si>
-    <t>酸辣湯麵+小菜+蛋</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:52</t>
-  </si>
-  <si>
-    <t>麻辣湯麵(張君雅)+豬血+臭豆腐</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:53</t>
-  </si>
-  <si>
-    <t>牛肉麵</t>
-  </si>
-  <si>
-    <t>沙茶羊肉羹麵</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:54</t>
-  </si>
-  <si>
-    <t>麻辣湯張君雅+豬血+臭豆腐+肉片</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:55</t>
-  </si>
-  <si>
-    <t>味噌湯麵+小菜+豚骨</t>
-  </si>
-  <si>
-    <t>烤肉乾麵</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:56</t>
-  </si>
-  <si>
-    <t>酸辣湯麵 蛋 雞腿</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:57</t>
-  </si>
-  <si>
-    <t>貢丸豚骨麵</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:58</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:49:59</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:00</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:01</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:02</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:03</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:04</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:05</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:06</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:07</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:08</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:09</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:10</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:11</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:12</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:13</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:14</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:15</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:16</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:17</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:18</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:19</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:20</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:21</t>
-  </si>
-  <si>
-    <t>2019-04-14-17:50:22</t>
-  </si>
-  <si>
-    <t>測試</t>
+    <t>2019/02/10-12:22:20</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:21</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:23</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:24</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:25</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:26</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:28</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:29</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:30</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:32</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:33</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:35</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:36</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:37</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:38</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:40</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:41</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:42</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:43</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:45</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:46</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:47</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:49</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:50</t>
+  </si>
+  <si>
+    <t>2019/02/10-12:22:52</t>
+  </si>
+  <si>
+    <t>貢丸</t>
+  </si>
+  <si>
+    <t>白菜</t>
+  </si>
+  <si>
+    <t>蘿蔔</t>
+  </si>
+  <si>
+    <t>肉片</t>
   </si>
 </sst>
 </file>
@@ -960,7 +978,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1002,42 +1020,42 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1046,27 +1064,27 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>3</v>
+        <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1075,27 +1093,27 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -1107,10 +1125,10 @@
         <v>-1</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
@@ -1118,416 +1136,434 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>5</v>
+        <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>305</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>-1</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>6</v>
+        <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <v>-1</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>7</v>
+        <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>-1</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>8</v>
+        <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F9">
         <v>-1</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>9</v>
+        <v>309</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>-1</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F11">
         <v>-1</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
+        <v>311</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>-1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13" t="s">
         <v>11</v>
       </c>
-      <c r="F13">
-        <v>-1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>13</v>
+        <v>313</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+      <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="F14">
-        <v>-1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>14</v>
+        <v>314</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>-1</v>
+      </c>
+      <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="F15">
-        <v>-1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>15</v>
+        <v>315</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+      <c r="G16" t="s">
         <v>11</v>
       </c>
-      <c r="F16">
-        <v>-1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
+        <v>316</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>-1</v>
+      </c>
+      <c r="G17" t="s">
         <v>11</v>
       </c>
-      <c r="F17">
-        <v>-1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>17</v>
+        <v>317</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>-1</v>
+      </c>
+      <c r="G18" t="s">
         <v>11</v>
       </c>
-      <c r="F18">
-        <v>-1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>14</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>18</v>
+        <v>318</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>-1</v>
+      </c>
+      <c r="G19" t="s">
         <v>11</v>
       </c>
-      <c r="F19">
-        <v>-1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>19</v>
+        <v>319</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
       </c>
       <c r="C20">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>-1</v>
+      </c>
+      <c r="G20" t="s">
         <v>11</v>
       </c>
-      <c r="F20">
-        <v>-1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I20" t="s">
         <v>33</v>
@@ -1535,54 +1571,57 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>20</v>
+        <v>320</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>-1</v>
+      </c>
+      <c r="G21" t="s">
         <v>11</v>
       </c>
-      <c r="F21">
-        <v>-1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>21</v>
+        <v>321</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C22">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>-1</v>
+      </c>
+      <c r="G22" t="s">
         <v>11</v>
       </c>
-      <c r="F22">
-        <v>-1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I22" t="s">
         <v>35</v>
@@ -1590,231 +1629,231 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>22</v>
+        <v>322</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C23">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>-1</v>
+      </c>
+      <c r="G23" t="s">
         <v>11</v>
       </c>
-      <c r="F23">
-        <v>-1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>14</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>23</v>
+        <v>323</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>-1</v>
+      </c>
+      <c r="G24" t="s">
         <v>11</v>
       </c>
-      <c r="F24">
-        <v>-1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>14</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>24</v>
+        <v>324</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C25">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>-1</v>
+      </c>
+      <c r="G25" t="s">
         <v>11</v>
       </c>
-      <c r="F25">
-        <v>-1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C26">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26">
+        <v>-1</v>
+      </c>
+      <c r="G26" t="s">
         <v>11</v>
       </c>
-      <c r="F26">
-        <v>-1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>14</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>26</v>
+        <v>326</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F27">
         <v>-1</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>27</v>
+        <v>327</v>
       </c>
       <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>-1</v>
+      </c>
+      <c r="G28" t="s">
         <v>40</v>
       </c>
-      <c r="C28">
-        <v>55</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <v>-1</v>
-      </c>
-      <c r="G28" t="s">
-        <v>39</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>28</v>
+        <v>328</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C29">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F29">
         <v>-1</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F30">
         <v>-1</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I30" t="s">
         <v>44</v>
@@ -1822,57 +1861,57 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>30</v>
+        <v>330</v>
       </c>
       <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31">
+        <v>-1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s">
         <v>45</v>
-      </c>
-      <c r="C31">
-        <v>55</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31">
-        <v>-1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>31</v>
+        <v>331</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F32">
         <v>-1</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I32" t="s">
         <v>46</v>
@@ -1880,489 +1919,492 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>32</v>
+        <v>332</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C33">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F33">
         <v>-1</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>33</v>
+        <v>333</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C34">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F34">
         <v>-1</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>34</v>
+        <v>334</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C35">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F35">
         <v>-1</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>35</v>
+        <v>335</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C36">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F36">
         <v>-1</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>36</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C37">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F37">
         <v>-1</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>37</v>
+        <v>337</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C38">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F38">
         <v>-1</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>38</v>
+        <v>338</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
       </c>
       <c r="C39">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F39">
         <v>-1</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>39</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C40">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F40">
         <v>-1</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
+        <v>340</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41">
+        <v>-1</v>
+      </c>
+      <c r="G41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41">
-        <v>123</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41">
-        <v>-1</v>
-      </c>
-      <c r="G41" t="s">
-        <v>39</v>
-      </c>
       <c r="H41" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>41</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C42">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F42">
         <v>-1</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>42</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C43">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F43">
         <v>-1</v>
       </c>
       <c r="G43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>43</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C44">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F44">
         <v>-1</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C45">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F45">
         <v>-1</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C46">
-        <v>123</v>
+        <v>345</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F46">
         <v>-1</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>46</v>
+        <v>346</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C47">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F47">
         <v>-1</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>47</v>
+        <v>347</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F48">
         <v>-1</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>48</v>
+        <v>348</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C49">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F49">
         <v>-1</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I49" t="s">
         <v>63</v>
@@ -2370,28 +2412,28 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C50">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F50">
         <v>-1</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I50" t="s">
         <v>64</v>
@@ -2399,28 +2441,28 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F51">
         <v>-1</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I51" t="s">
         <v>65</v>
@@ -2428,1153 +2470,1159 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52">
+        <v>-1</v>
+      </c>
+      <c r="G52" t="s">
         <v>66</v>
       </c>
-      <c r="C52">
-        <v>40</v>
-      </c>
-      <c r="D52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52">
-        <v>-1</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="H52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" t="s">
         <v>67</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>52</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53">
+        <v>-1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>66</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" t="s">
         <v>68</v>
-      </c>
-      <c r="C53">
-        <v>40</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53">
-        <v>-1</v>
-      </c>
-      <c r="G53" t="s">
-        <v>67</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>53</v>
+        <v>353</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F54">
         <v>-1</v>
       </c>
       <c r="G54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>54</v>
+        <v>354</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C55">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F55">
         <v>-1</v>
       </c>
       <c r="G55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I55" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>55</v>
+        <v>355</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F56">
         <v>-1</v>
       </c>
       <c r="G56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>56</v>
+        <v>356</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="C57">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F57">
         <v>-1</v>
       </c>
       <c r="G57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I57" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>57</v>
+        <v>357</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C58">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F58">
         <v>-1</v>
       </c>
       <c r="G58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I58" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>58</v>
+        <v>358</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C59">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F59">
         <v>-1</v>
       </c>
       <c r="G59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I59" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>59</v>
+        <v>359</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C60">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F60">
         <v>-1</v>
       </c>
       <c r="G60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I60" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="C61">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F61">
         <v>-1</v>
       </c>
       <c r="G61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I61" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>61</v>
+        <v>361</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="C62">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F62">
         <v>-1</v>
       </c>
       <c r="G62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I62" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>62</v>
+        <v>362</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="C63">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F63">
         <v>-1</v>
       </c>
       <c r="G63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I63" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>63</v>
+        <v>363</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="C64">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F64">
         <v>-1</v>
       </c>
       <c r="G64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I64" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>64</v>
+        <v>364</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="C65">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F65">
         <v>-1</v>
       </c>
       <c r="G65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I65" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>65</v>
+        <v>365</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
       </c>
       <c r="C66">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F66">
         <v>-1</v>
       </c>
       <c r="G66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I66" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
+        <v>366</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67">
+        <v>-1</v>
+      </c>
+      <c r="G67" t="s">
         <v>66</v>
       </c>
-      <c r="C67">
-        <v>123</v>
-      </c>
-      <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67">
-        <v>-1</v>
-      </c>
-      <c r="G67" t="s">
-        <v>67</v>
-      </c>
       <c r="H67" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I67" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>67</v>
+        <v>367</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C68">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F68">
         <v>-1</v>
       </c>
       <c r="G68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I68" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>68</v>
+        <v>368</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C69">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F69">
         <v>-1</v>
       </c>
       <c r="G69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I69" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>69</v>
+        <v>369</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C70">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F70">
         <v>-1</v>
       </c>
       <c r="G70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I70" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>70</v>
+        <v>370</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C71">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F71">
         <v>-1</v>
       </c>
       <c r="G71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I71" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>71</v>
+        <v>371</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C72">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F72">
         <v>-1</v>
       </c>
       <c r="G72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I72" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>72</v>
+        <v>372</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C73">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F73">
         <v>-1</v>
       </c>
       <c r="G73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I73" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>73</v>
+        <v>373</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C74">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F74">
         <v>-1</v>
       </c>
       <c r="G74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I74" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>74</v>
+        <v>374</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C75">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F75">
         <v>-1</v>
       </c>
       <c r="G75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C76">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F76">
         <v>-1</v>
       </c>
       <c r="G76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I76" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C77">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F77">
         <v>-1</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I77" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F78">
         <v>-1</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I78" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C79">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F79">
         <v>-1</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I79" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F80">
         <v>-1</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I80" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C81">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F81">
         <v>-1</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I81" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C82">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F82">
         <v>-1</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I82" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>82</v>
+        <v>382</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C83">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F83">
         <v>-1</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I83" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>83</v>
+        <v>383</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C84">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F84">
         <v>-1</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H84" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I84" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>84</v>
+        <v>384</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C85">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F85">
         <v>-1</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H85" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I85" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>85</v>
+        <v>385</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C86">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F86">
         <v>-1</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H86" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I86" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>86</v>
+        <v>386</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C87">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F87">
         <v>-1</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H87" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I87" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>87</v>
+        <v>387</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C88">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F88">
         <v>-1</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H88" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>88</v>
+        <v>388</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C89">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F89">
         <v>-1</v>
       </c>
       <c r="G89" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H89" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>89</v>
+        <v>389</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C90">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F90">
         <v>-1</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H90" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>90</v>
+        <v>390</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C91">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F91">
         <v>-1</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I91" t="s">
         <v>107</v>
@@ -3582,28 +3630,28 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>91</v>
+        <v>391</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C92">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F92">
         <v>-1</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H92" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I92" t="s">
         <v>108</v>
@@ -3611,28 +3659,28 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
+        <v>392</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93">
+        <v>-1</v>
+      </c>
+      <c r="G93" t="s">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>34</v>
-      </c>
-      <c r="C93">
-        <v>123</v>
-      </c>
-      <c r="D93" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93">
-        <v>-1</v>
-      </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
       <c r="H93" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I93" t="s">
         <v>109</v>
@@ -3640,234 +3688,234 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>93</v>
+        <v>393</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C94">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F94">
         <v>-1</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H94" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I94" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>94</v>
+        <v>394</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C95">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F95">
         <v>-1</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H95" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I95" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>95</v>
+        <v>395</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C96">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F96">
         <v>-1</v>
       </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I96" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>96</v>
+        <v>396</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C97">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D97" t="s">
         <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F97">
         <v>-1</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H97" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>97</v>
+        <v>397</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C98">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F98">
         <v>-1</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H98" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I98" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>98</v>
+        <v>398</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C99">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F99">
         <v>-1</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H99" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I99" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>99</v>
+        <v>399</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C100">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F100">
         <v>-1</v>
       </c>
       <c r="G100" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H100" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I100" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C101">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D101" t="s">
         <v>9</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F101">
         <v>-1</v>
       </c>
       <c r="G101" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H101" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I101" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Attach/FactoryClient/FactoryClient/bin/Release/菜單.xlsx
+++ b/Attach/FactoryClient/FactoryClient/bin/Release/菜單.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4ACED2-5C84-456F-9BD9-3FB8027C4720}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E7CB88-5AED-456C-9856-EFBB3875F9A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="112">
   <si>
     <t>編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,337 +59,307 @@
     <t>否</t>
   </si>
   <si>
-    <t>關東煮(1)</t>
-  </si>
-  <si>
-    <t>關東煮(4)</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:41</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:42</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:44</t>
-  </si>
-  <si>
-    <t>閒置中的餐點</t>
-  </si>
-  <si>
     <t>是</t>
   </si>
   <si>
-    <t>2019/02/10-12:20:45</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:46</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:47</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:49</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:50</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:51</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:52</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:53</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:54</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:55</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:57</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:58</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:20:59</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:00</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:02</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:03</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:04</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:05</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:07</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:08</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:09</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:10</t>
-  </si>
-  <si>
-    <t>閒置(2)</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:12</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:13</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:15</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:17</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:18</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:19</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:21</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:22</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:23</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:24</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:25</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:27</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:28</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:29</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:30</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:31</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:33</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:34</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:35</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:36</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:37</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:38</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:40</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:41</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:43</t>
-  </si>
-  <si>
-    <t>閒置(3)</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:44</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:45</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:47</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:48</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:50</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:51</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:53</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:54</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:55</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:57</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:58</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:21:59</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:01</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:02</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:04</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:05</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:07</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:08</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:09</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:11</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:12</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:14</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:15</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:17</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:18</t>
-  </si>
-  <si>
     <t>閒置(4)</t>
   </si>
   <si>
-    <t>2019/02/10-12:22:20</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:21</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:23</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:24</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:25</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:26</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:28</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:29</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:30</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:32</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:33</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:35</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:36</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:37</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:38</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:40</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:41</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:42</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:43</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:45</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:46</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:47</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:49</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:50</t>
-  </si>
-  <si>
-    <t>2019/02/10-12:22:52</t>
-  </si>
-  <si>
-    <t>貢丸</t>
-  </si>
-  <si>
-    <t>白菜</t>
-  </si>
-  <si>
-    <t>蘿蔔</t>
-  </si>
-  <si>
-    <t>肉片</t>
+    <t>素</t>
+  </si>
+  <si>
+    <t>飯食部(1)</t>
+  </si>
+  <si>
+    <t>台灣小吃部(1)</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:09</t>
+  </si>
+  <si>
+    <t>海苔御飯糰</t>
+  </si>
+  <si>
+    <t>熱狗蛋炒飯</t>
+  </si>
+  <si>
+    <t>紅燒肉飯+二副菜</t>
+  </si>
+  <si>
+    <t>滷肉飯+二副菜</t>
+  </si>
+  <si>
+    <t>焗烤白醬飯+起司豬排</t>
+  </si>
+  <si>
+    <t>焗烤白醬麵+起司豬排</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:10</t>
+  </si>
+  <si>
+    <t>熱狗蛋炒飯+雞排</t>
+  </si>
+  <si>
+    <t>黑胡椒丼飯</t>
+  </si>
+  <si>
+    <t>韓式拌飯</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:11</t>
+  </si>
+  <si>
+    <t>牛肉粥</t>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:12</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:13</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:14</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:15</t>
+  </si>
+  <si>
+    <t>閒置的餐點</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:16</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:17</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:18</t>
+  </si>
+  <si>
+    <t>卡拉雞+三副菜</t>
+  </si>
+  <si>
+    <t>焗烤部(2)</t>
+  </si>
+  <si>
+    <t>起司豬排+三副菜</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:19</t>
+  </si>
+  <si>
+    <t>蒜泥白肉+三副菜</t>
+  </si>
+  <si>
+    <t>烤肉飯+三副菜</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:20</t>
+  </si>
+  <si>
+    <t>香煎無骨雞腿排+三副菜</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:21</t>
+  </si>
+  <si>
+    <t>蒜香鹹豬肉+三副菜</t>
+  </si>
+  <si>
+    <t>浦燒魚飯+雞塊+三副菜</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:22</t>
+  </si>
+  <si>
+    <t>鐵路豬排+三副菜</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:23</t>
+  </si>
+  <si>
+    <t>無骨雞排飯+三副菜</t>
+  </si>
+  <si>
+    <t>雞腿飯+三副菜</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:24</t>
+  </si>
+  <si>
+    <t>黑胡椒豬柳+三副菜</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:25</t>
+  </si>
+  <si>
+    <t>原味小火鍋</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:26</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:27</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:28</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:29</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:30</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:31</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:32</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:33</t>
+  </si>
+  <si>
+    <t>張君雅泡乾麵+荷包蛋+青菜</t>
+  </si>
+  <si>
+    <t>麵食部(3)</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:34</t>
+  </si>
+  <si>
+    <t>台南擔仔乾麵+荷包蛋+小菜</t>
+  </si>
+  <si>
+    <t>乾粄條+小菜+蛋</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:35</t>
+  </si>
+  <si>
+    <t>牛肉湯麵</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:36</t>
+  </si>
+  <si>
+    <t>酸辣湯餃</t>
+  </si>
+  <si>
+    <t>味噌拉麵+蛋</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:37</t>
+  </si>
+  <si>
+    <t>麻辣湯麵(張君雅)+豬血+臭豆腐</t>
+  </si>
+  <si>
+    <t>牛肉麵</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:38</t>
+  </si>
+  <si>
+    <t>沙茶羊肉羹麵</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:39</t>
+  </si>
+  <si>
+    <t>麻辣湯張君雅+豬血+臭豆腐+肉片</t>
+  </si>
+  <si>
+    <t>味噌拉麵+蛋+卡拉雞</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:40</t>
+  </si>
+  <si>
+    <t>烤肉乾麵</t>
+  </si>
+  <si>
+    <t>酸辣湯麵 蛋 雞腿</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:41</t>
+  </si>
+  <si>
+    <t>貢丸豚骨麵</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:42</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:43</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:44</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:45</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:46</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:47</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:48</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:49</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:50</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:51</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:52</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:53</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:54</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:55</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:56</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:57</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:58</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:30:59</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:31:00</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:31:01</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:31:02</t>
+  </si>
+  <si>
+    <t>2019-06-18-19:31:03</t>
+  </si>
+  <si>
+    <t>蔥抓餅+蛋+雞排2333</t>
   </si>
 </sst>
 </file>
@@ -978,7 +948,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1020,42 +990,42 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>150</v>
+        <v>-1</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>302</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1064,27 +1034,27 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>150</v>
+        <v>-1</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>303</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1093,27 +1063,27 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>150</v>
+        <v>-1</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>304</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -1125,155 +1095,155 @@
         <v>-1</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>305</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6">
-        <v>305</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>306</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>307</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>-1</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>308</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>-1</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>-1</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
         <v>23</v>
@@ -1281,260 +1251,245 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>-1</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>-1</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>312</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>-1</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>313</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>-1</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>314</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>-1</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>315</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F16">
         <v>-1</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>316</v>
-      </c>
-      <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F17">
         <v>-1</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>317</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F18">
         <v>-1</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>318</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F19">
         <v>-1</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
         <v>32</v>
@@ -1542,28 +1497,25 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>319</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F20">
         <v>-1</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
         <v>33</v>
@@ -1571,289 +1523,286 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>320</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F21">
         <v>-1</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>321</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22">
         <v>-1</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>322</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F23">
         <v>-1</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>323</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F24">
         <v>-1</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F25">
         <v>-1</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>325</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F26">
         <v>-1</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>326</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F27">
         <v>-1</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>327</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F28">
         <v>-1</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>328</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F29">
         <v>-1</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>329</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F30">
         <v>-1</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
         <v>44</v>
@@ -1861,57 +1810,57 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F31">
         <v>-1</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>331</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F32">
         <v>-1</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
         <v>46</v>
@@ -1919,550 +1868,547 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>332</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F33">
         <v>-1</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>333</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F34">
         <v>-1</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>334</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F35">
         <v>-1</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>335</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F36">
         <v>-1</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>336</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F37">
         <v>-1</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>337</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F38">
         <v>-1</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>338</v>
-      </c>
-      <c r="B39" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F39">
         <v>-1</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>339</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F40">
         <v>-1</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>340</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F41">
         <v>-1</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>341</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F42">
         <v>-1</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>342</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F43">
         <v>-1</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>343</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F44">
         <v>-1</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>344</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F45">
         <v>-1</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>345</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C46">
-        <v>345</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F46">
         <v>-1</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>346</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F47">
         <v>-1</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>347</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F48">
         <v>-1</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>348</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F49">
         <v>-1</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>349</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F50">
         <v>-1</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F51">
         <v>-1</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
         <v>65</v>
@@ -2470,57 +2416,57 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F52">
         <v>-1</v>
       </c>
       <c r="G52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>352</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F53">
         <v>-1</v>
       </c>
       <c r="G53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
         <v>68</v>
@@ -2528,869 +2474,863 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>353</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F54">
         <v>-1</v>
       </c>
       <c r="G54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>354</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F55">
         <v>-1</v>
       </c>
       <c r="G55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>355</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F56">
         <v>-1</v>
       </c>
       <c r="G56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>356</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F57">
         <v>-1</v>
       </c>
       <c r="G57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>357</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F58">
         <v>-1</v>
       </c>
       <c r="G58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>358</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F59">
         <v>-1</v>
       </c>
       <c r="G59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>359</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F60">
         <v>-1</v>
       </c>
       <c r="G60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F61">
         <v>-1</v>
       </c>
       <c r="G61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>361</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F62">
         <v>-1</v>
       </c>
       <c r="G62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>362</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F63">
         <v>-1</v>
       </c>
       <c r="G63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>363</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F64">
         <v>-1</v>
       </c>
       <c r="G64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>364</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F65">
         <v>-1</v>
       </c>
       <c r="G65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>365</v>
-      </c>
-      <c r="B66" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F66">
         <v>-1</v>
       </c>
       <c r="G66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>366</v>
-      </c>
-      <c r="B67" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F67">
         <v>-1</v>
       </c>
       <c r="G67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>367</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F68">
         <v>-1</v>
       </c>
       <c r="G68" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>368</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F69">
         <v>-1</v>
       </c>
       <c r="G69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>369</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F70">
         <v>-1</v>
       </c>
       <c r="G70" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>370</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F71">
         <v>-1</v>
       </c>
       <c r="G71" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>371</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F72">
         <v>-1</v>
       </c>
       <c r="G72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>372</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F73">
         <v>-1</v>
       </c>
       <c r="G73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>373</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F74">
         <v>-1</v>
       </c>
       <c r="G74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>374</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F75">
         <v>-1</v>
       </c>
       <c r="G75" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>375</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F76">
         <v>-1</v>
       </c>
       <c r="G76" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F77">
         <v>-1</v>
       </c>
       <c r="G77" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F78">
         <v>-1</v>
       </c>
       <c r="G78" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F79">
         <v>-1</v>
       </c>
       <c r="G79" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
       </c>
       <c r="E80" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F80">
         <v>-1</v>
       </c>
       <c r="G80" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F81">
         <v>-1</v>
       </c>
       <c r="G81" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F82">
         <v>-1</v>
       </c>
       <c r="G82" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>382</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F83">
         <v>-1</v>
       </c>
       <c r="G83" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
         <v>99</v>
@@ -3398,28 +3338,28 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>383</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F84">
         <v>-1</v>
       </c>
       <c r="G84" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
         <v>100</v>
@@ -3427,495 +3367,495 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>384</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F85">
         <v>-1</v>
       </c>
       <c r="G85" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>385</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F86">
         <v>-1</v>
       </c>
       <c r="G86" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>386</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F87">
         <v>-1</v>
       </c>
       <c r="G87" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>387</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F88">
         <v>-1</v>
       </c>
       <c r="G88" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H88" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>388</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F89">
         <v>-1</v>
       </c>
       <c r="G89" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>389</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F90">
         <v>-1</v>
       </c>
       <c r="G90" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H90" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>390</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F91">
         <v>-1</v>
       </c>
       <c r="G91" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>391</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F92">
         <v>-1</v>
       </c>
       <c r="G92" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>392</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F93">
         <v>-1</v>
       </c>
       <c r="G93" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>393</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F94">
         <v>-1</v>
       </c>
       <c r="G94" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>394</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F95">
         <v>-1</v>
       </c>
       <c r="G95" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>395</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F96">
         <v>-1</v>
       </c>
       <c r="G96" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H96" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>396</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D97" t="s">
         <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F97">
         <v>-1</v>
       </c>
       <c r="G97" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>397</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F98">
         <v>-1</v>
       </c>
       <c r="G98" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>398</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F99">
         <v>-1</v>
       </c>
       <c r="G99" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>399</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
       </c>
       <c r="E100" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F100">
         <v>-1</v>
       </c>
       <c r="G100" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D101" t="s">
         <v>9</v>
       </c>
       <c r="E101" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F101">
         <v>-1</v>
       </c>
       <c r="G101" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Attach/FactoryClient/FactoryClient/bin/Release/菜單.xlsx
+++ b/Attach/FactoryClient/FactoryClient/bin/Release/菜單.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E7CB88-5AED-456C-9856-EFBB3875F9A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB24361-666D-4C4A-A15B-72AC126A585A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13170" yWindow="8460" windowWidth="15630" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="104">
   <si>
     <t>編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,18 +74,6 @@
     <t>台灣小吃部(1)</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:09</t>
-  </si>
-  <si>
-    <t>海苔御飯糰</t>
-  </si>
-  <si>
-    <t>熱狗蛋炒飯</t>
-  </si>
-  <si>
-    <t>紅燒肉飯+二副菜</t>
-  </si>
-  <si>
     <t>滷肉飯+二副菜</t>
   </si>
   <si>
@@ -95,51 +83,21 @@
     <t>焗烤白醬麵+起司豬排</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:10</t>
-  </si>
-  <si>
-    <t>熱狗蛋炒飯+雞排</t>
-  </si>
-  <si>
     <t>黑胡椒丼飯</t>
   </si>
   <si>
     <t>韓式拌飯</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:11</t>
-  </si>
-  <si>
     <t>牛肉粥</t>
   </si>
   <si>
     <t>皮蛋瘦肉粥</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:12</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:13</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:14</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:15</t>
-  </si>
-  <si>
     <t>閒置的餐點</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:16</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:17</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:18</t>
-  </si>
-  <si>
     <t>卡拉雞+三副菜</t>
   </si>
   <si>
@@ -149,217 +107,235 @@
     <t>起司豬排+三副菜</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:19</t>
-  </si>
-  <si>
     <t>蒜泥白肉+三副菜</t>
   </si>
   <si>
     <t>烤肉飯+三副菜</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:20</t>
-  </si>
-  <si>
     <t>香煎無骨雞腿排+三副菜</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:21</t>
-  </si>
-  <si>
-    <t>蒜香鹹豬肉+三副菜</t>
-  </si>
-  <si>
     <t>浦燒魚飯+雞塊+三副菜</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:22</t>
-  </si>
-  <si>
     <t>鐵路豬排+三副菜</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:23</t>
-  </si>
-  <si>
     <t>無骨雞排飯+三副菜</t>
   </si>
   <si>
     <t>雞腿飯+三副菜</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:24</t>
-  </si>
-  <si>
     <t>黑胡椒豬柳+三副菜</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:25</t>
-  </si>
-  <si>
     <t>原味小火鍋</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:26</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:27</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:28</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:29</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:30</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:31</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:32</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:33</t>
-  </si>
-  <si>
     <t>張君雅泡乾麵+荷包蛋+青菜</t>
   </si>
   <si>
     <t>麵食部(3)</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:34</t>
-  </si>
-  <si>
     <t>台南擔仔乾麵+荷包蛋+小菜</t>
   </si>
   <si>
     <t>乾粄條+小菜+蛋</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:35</t>
-  </si>
-  <si>
     <t>牛肉湯麵</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:36</t>
-  </si>
-  <si>
-    <t>酸辣湯餃</t>
-  </si>
-  <si>
     <t>味噌拉麵+蛋</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:37</t>
-  </si>
-  <si>
     <t>麻辣湯麵(張君雅)+豬血+臭豆腐</t>
   </si>
   <si>
     <t>牛肉麵</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:38</t>
-  </si>
-  <si>
     <t>沙茶羊肉羹麵</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:39</t>
-  </si>
-  <si>
     <t>麻辣湯張君雅+豬血+臭豆腐+肉片</t>
   </si>
   <si>
     <t>味噌拉麵+蛋+卡拉雞</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:40</t>
-  </si>
-  <si>
     <t>烤肉乾麵</t>
   </si>
   <si>
     <t>酸辣湯麵 蛋 雞腿</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:41</t>
-  </si>
-  <si>
     <t>貢丸豚骨麵</t>
   </si>
   <si>
-    <t>2019-06-18-19:30:42</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:43</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:44</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:45</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:46</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:47</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:48</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:49</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:50</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:51</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:52</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:53</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:54</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:55</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:56</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:57</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:58</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:30:59</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:31:01</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:31:02</t>
-  </si>
-  <si>
-    <t>2019-06-18-19:31:03</t>
-  </si>
-  <si>
-    <t>蔥抓餅+蛋+雞排2333</t>
+    <t>qwer</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:08</t>
+  </si>
+  <si>
+    <t>蛋炒飯</t>
+  </si>
+  <si>
+    <t>雞肉絲飯+二副菜</t>
+  </si>
+  <si>
+    <t>蛋炒飯+雞排</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:09</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:10</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:11</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:12</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:13</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:14</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:15</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:16</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:17</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:18</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:19</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:20</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:21</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:22</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:23</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:24</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:25</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:26</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:27</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:28</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:29</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:30</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:31</t>
+  </si>
+  <si>
+    <t>酸辣湯麵</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:32</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:33</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:34</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:35</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:36</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:37</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:38</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:39</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:40</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:41</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:42</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:43</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:44</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:45</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:46</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:47</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:48</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:49</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:50</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:51</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:52</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:53</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:54</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:55</t>
+  </si>
+  <si>
+    <t>2019-08-24-23:51:56</t>
   </si>
 </sst>
 </file>
@@ -993,10 +969,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1005,7 +981,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>5487</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -1014,7 +990,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1022,7 +998,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -1043,7 +1019,7 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1051,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>40</v>
@@ -1072,7 +1048,7 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1080,7 +1056,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -1101,7 +1077,7 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1109,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>40</v>
@@ -1130,7 +1106,7 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1138,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>55</v>
@@ -1159,7 +1135,7 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1167,7 +1143,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>55</v>
@@ -1188,7 +1164,7 @@
         <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1196,7 +1172,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>55</v>
@@ -1217,7 +1193,7 @@
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1225,7 +1201,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>55</v>
@@ -1246,7 +1222,7 @@
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1254,7 +1230,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>55</v>
@@ -1275,7 +1251,7 @@
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1283,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>55</v>
@@ -1292,7 +1268,7 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -1304,7 +1280,7 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1312,7 +1288,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>55</v>
@@ -1333,7 +1309,7 @@
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1341,7 +1317,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>55</v>
@@ -1362,7 +1338,7 @@
         <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1388,7 +1364,7 @@
         <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1414,7 +1390,7 @@
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1440,7 +1416,7 @@
         <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1466,7 +1442,7 @@
         <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1492,7 +1468,7 @@
         <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1518,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1544,7 +1520,7 @@
         <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1552,7 +1528,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>123</v>
@@ -1573,7 +1549,7 @@
         <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1581,7 +1557,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>123</v>
@@ -1602,7 +1578,7 @@
         <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1610,7 +1586,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>123</v>
@@ -1631,7 +1607,7 @@
         <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1639,7 +1615,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>123</v>
@@ -1660,7 +1636,7 @@
         <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1668,7 +1644,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>123</v>
@@ -1689,7 +1665,7 @@
         <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1697,7 +1673,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>55</v>
@@ -1712,13 +1688,13 @@
         <v>-1</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1726,7 +1702,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>55</v>
@@ -1741,13 +1717,13 @@
         <v>-1</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1755,7 +1731,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>55</v>
@@ -1770,13 +1746,13 @@
         <v>-1</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1784,7 +1760,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>55</v>
@@ -1799,13 +1775,13 @@
         <v>-1</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1813,7 +1789,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>55</v>
@@ -1828,13 +1804,13 @@
         <v>-1</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1842,7 +1818,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>55</v>
@@ -1857,13 +1833,13 @@
         <v>-1</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1871,7 +1847,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>55</v>
@@ -1886,13 +1862,13 @@
         <v>-1</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1900,7 +1876,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>55</v>
@@ -1915,13 +1891,13 @@
         <v>-1</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1929,7 +1905,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>55</v>
@@ -1944,13 +1920,13 @@
         <v>-1</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1958,7 +1934,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>55</v>
@@ -1967,19 +1943,19 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36">
         <v>-1</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1987,7 +1963,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C37">
         <v>55</v>
@@ -2002,13 +1978,13 @@
         <v>-1</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2016,7 +1992,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>123</v>
@@ -2031,13 +2007,13 @@
         <v>-1</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2057,13 +2033,13 @@
         <v>-1</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2071,7 +2047,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C40">
         <v>123</v>
@@ -2086,13 +2062,13 @@
         <v>-1</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2100,7 +2076,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C41">
         <v>123</v>
@@ -2115,13 +2091,13 @@
         <v>-1</v>
       </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2129,7 +2105,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C42">
         <v>123</v>
@@ -2144,13 +2120,13 @@
         <v>-1</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2158,7 +2134,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C43">
         <v>123</v>
@@ -2173,13 +2149,13 @@
         <v>-1</v>
       </c>
       <c r="G43" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2187,7 +2163,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C44">
         <v>123</v>
@@ -2202,13 +2178,13 @@
         <v>-1</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2216,7 +2192,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C45">
         <v>123</v>
@@ -2231,13 +2207,13 @@
         <v>-1</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2245,7 +2221,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C46">
         <v>123</v>
@@ -2260,13 +2236,13 @@
         <v>-1</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2274,7 +2250,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C47">
         <v>123</v>
@@ -2289,13 +2265,13 @@
         <v>-1</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2303,7 +2279,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C48">
         <v>123</v>
@@ -2318,13 +2294,13 @@
         <v>-1</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2332,7 +2308,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C49">
         <v>123</v>
@@ -2347,13 +2323,13 @@
         <v>-1</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2361,7 +2337,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C50">
         <v>123</v>
@@ -2376,13 +2352,13 @@
         <v>-1</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2390,7 +2366,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C51">
         <v>123</v>
@@ -2405,13 +2381,13 @@
         <v>-1</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2419,7 +2395,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C52">
         <v>40</v>
@@ -2434,13 +2410,13 @@
         <v>-1</v>
       </c>
       <c r="G52" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2448,7 +2424,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C53">
         <v>40</v>
@@ -2463,13 +2439,13 @@
         <v>-1</v>
       </c>
       <c r="G53" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2477,7 +2453,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C54">
         <v>40</v>
@@ -2492,13 +2468,13 @@
         <v>-1</v>
       </c>
       <c r="G54" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2506,7 +2482,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C55">
         <v>40</v>
@@ -2521,13 +2497,13 @@
         <v>-1</v>
       </c>
       <c r="G55" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2535,7 +2511,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C56">
         <v>40</v>
@@ -2550,13 +2526,13 @@
         <v>-1</v>
       </c>
       <c r="G56" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2564,7 +2540,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C57">
         <v>40</v>
@@ -2579,13 +2555,13 @@
         <v>-1</v>
       </c>
       <c r="G57" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2593,7 +2569,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C58">
         <v>40</v>
@@ -2608,13 +2584,13 @@
         <v>-1</v>
       </c>
       <c r="G58" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2622,7 +2598,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C59">
         <v>55</v>
@@ -2637,13 +2613,13 @@
         <v>-1</v>
       </c>
       <c r="G59" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2651,7 +2627,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C60">
         <v>55</v>
@@ -2666,7 +2642,7 @@
         <v>-1</v>
       </c>
       <c r="G60" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>15</v>
@@ -2680,7 +2656,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C61">
         <v>55</v>
@@ -2695,13 +2671,13 @@
         <v>-1</v>
       </c>
       <c r="G61" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2709,7 +2685,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C62">
         <v>55</v>
@@ -2724,13 +2700,13 @@
         <v>-1</v>
       </c>
       <c r="G62" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2738,7 +2714,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C63">
         <v>55</v>
@@ -2753,13 +2729,13 @@
         <v>-1</v>
       </c>
       <c r="G63" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2767,7 +2743,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C64">
         <v>55</v>
@@ -2782,13 +2758,13 @@
         <v>-1</v>
       </c>
       <c r="G64" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2796,7 +2772,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C65">
         <v>55</v>
@@ -2811,13 +2787,13 @@
         <v>-1</v>
       </c>
       <c r="G65" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2837,13 +2813,13 @@
         <v>-1</v>
       </c>
       <c r="G66" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2863,13 +2839,13 @@
         <v>-1</v>
       </c>
       <c r="G67" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2877,7 +2853,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C68">
         <v>123</v>
@@ -2892,13 +2868,13 @@
         <v>-1</v>
       </c>
       <c r="G68" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2906,7 +2882,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C69">
         <v>123</v>
@@ -2921,13 +2897,13 @@
         <v>-1</v>
       </c>
       <c r="G69" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2935,7 +2911,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C70">
         <v>123</v>
@@ -2950,13 +2926,13 @@
         <v>-1</v>
       </c>
       <c r="G70" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2964,7 +2940,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C71">
         <v>123</v>
@@ -2979,13 +2955,13 @@
         <v>-1</v>
       </c>
       <c r="G71" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2993,7 +2969,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C72">
         <v>123</v>
@@ -3008,13 +2984,13 @@
         <v>-1</v>
       </c>
       <c r="G72" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3022,7 +2998,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C73">
         <v>123</v>
@@ -3037,13 +3013,13 @@
         <v>-1</v>
       </c>
       <c r="G73" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3051,7 +3027,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C74">
         <v>123</v>
@@ -3066,13 +3042,13 @@
         <v>-1</v>
       </c>
       <c r="G74" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3080,7 +3056,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C75">
         <v>123</v>
@@ -3095,13 +3071,13 @@
         <v>-1</v>
       </c>
       <c r="G75" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3109,7 +3085,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C76">
         <v>123</v>
@@ -3124,13 +3100,13 @@
         <v>-1</v>
       </c>
       <c r="G76" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3138,7 +3114,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C77">
         <v>123</v>
@@ -3159,7 +3135,7 @@
         <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3167,7 +3143,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C78">
         <v>123</v>
@@ -3188,7 +3164,7 @@
         <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3196,7 +3172,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C79">
         <v>123</v>
@@ -3217,7 +3193,7 @@
         <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3225,7 +3201,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C80">
         <v>123</v>
@@ -3246,7 +3222,7 @@
         <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3254,7 +3230,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C81">
         <v>123</v>
@@ -3275,7 +3251,7 @@
         <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3283,7 +3259,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C82">
         <v>123</v>
@@ -3304,7 +3280,7 @@
         <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3312,7 +3288,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C83">
         <v>123</v>
@@ -3333,7 +3309,7 @@
         <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3341,7 +3317,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C84">
         <v>123</v>
@@ -3362,7 +3338,7 @@
         <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3370,7 +3346,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C85">
         <v>123</v>
@@ -3391,7 +3367,7 @@
         <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3399,7 +3375,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C86">
         <v>123</v>
@@ -3420,7 +3396,7 @@
         <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3428,7 +3404,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C87">
         <v>123</v>
@@ -3449,7 +3425,7 @@
         <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3457,7 +3433,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C88">
         <v>123</v>
@@ -3478,7 +3454,7 @@
         <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3486,7 +3462,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C89">
         <v>123</v>
@@ -3507,7 +3483,7 @@
         <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3515,7 +3491,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C90">
         <v>123</v>
@@ -3536,7 +3512,7 @@
         <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3544,7 +3520,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C91">
         <v>123</v>
@@ -3565,7 +3541,7 @@
         <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3573,7 +3549,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C92">
         <v>123</v>
@@ -3594,7 +3570,7 @@
         <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3602,7 +3578,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C93">
         <v>123</v>
@@ -3623,7 +3599,7 @@
         <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3631,7 +3607,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C94">
         <v>123</v>
@@ -3652,7 +3628,7 @@
         <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3660,7 +3636,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C95">
         <v>123</v>
@@ -3681,7 +3657,7 @@
         <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3689,7 +3665,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C96">
         <v>123</v>
@@ -3710,7 +3686,7 @@
         <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3718,7 +3694,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C97">
         <v>123</v>
@@ -3739,7 +3715,7 @@
         <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3747,7 +3723,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C98">
         <v>123</v>
@@ -3768,7 +3744,7 @@
         <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3776,7 +3752,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C99">
         <v>123</v>
@@ -3797,7 +3773,7 @@
         <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3805,7 +3781,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C100">
         <v>123</v>
@@ -3826,7 +3802,7 @@
         <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3834,7 +3810,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C101">
         <v>123</v>
@@ -3855,7 +3831,7 @@
         <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
